--- a/natmiOut/YoungD7/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>F2rl2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.22690099197231</v>
+        <v>0.435996</v>
       </c>
       <c r="H2">
-        <v>1.22690099197231</v>
+        <v>1.307988</v>
       </c>
       <c r="I2">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J2">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.358428795373509</v>
+        <v>1.278147</v>
       </c>
       <c r="N2">
-        <v>0.358428795373509</v>
+        <v>3.834441</v>
       </c>
       <c r="O2">
-        <v>0.1226424611303512</v>
+        <v>0.2725986088832612</v>
       </c>
       <c r="P2">
-        <v>0.1226424611303512</v>
+        <v>0.2725986088832613</v>
       </c>
       <c r="Q2">
-        <v>0.4397566445951983</v>
+        <v>0.557266979412</v>
       </c>
       <c r="R2">
-        <v>0.4397566445951983</v>
+        <v>5.015402814708</v>
       </c>
       <c r="S2">
-        <v>0.06748958045220581</v>
+        <v>0.03994697900540047</v>
       </c>
       <c r="T2">
-        <v>0.06748958045220581</v>
+        <v>0.03994697900540048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.22690099197231</v>
+        <v>0.435996</v>
       </c>
       <c r="H3">
-        <v>1.22690099197231</v>
+        <v>1.307988</v>
       </c>
       <c r="I3">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J3">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.33046805564507</v>
+        <v>0.390102</v>
       </c>
       <c r="N3">
-        <v>1.33046805564507</v>
+        <v>1.170306</v>
       </c>
       <c r="O3">
-        <v>0.4552420980283892</v>
+        <v>0.0831995557025741</v>
       </c>
       <c r="P3">
-        <v>0.4552420980283892</v>
+        <v>0.0831995557025741</v>
       </c>
       <c r="Q3">
-        <v>1.632352577258407</v>
+        <v>0.170082911592</v>
       </c>
       <c r="R3">
-        <v>1.632352577258407</v>
+        <v>1.530746204328</v>
       </c>
       <c r="S3">
-        <v>0.2505176259261681</v>
+        <v>0.01219217852403889</v>
       </c>
       <c r="T3">
-        <v>0.2505176259261681</v>
+        <v>0.01219217852403889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.22690099197231</v>
+        <v>0.435996</v>
       </c>
       <c r="H4">
-        <v>1.22690099197231</v>
+        <v>1.307988</v>
       </c>
       <c r="I4">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J4">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.23365372461404</v>
+        <v>1.449418333333333</v>
       </c>
       <c r="N4">
-        <v>1.23365372461404</v>
+        <v>4.348255</v>
       </c>
       <c r="O4">
-        <v>0.4221154408412596</v>
+        <v>0.3091267446988192</v>
       </c>
       <c r="P4">
-        <v>0.4221154408412596</v>
+        <v>0.3091267446988192</v>
       </c>
       <c r="Q4">
-        <v>1.513570978479301</v>
+        <v>0.6319405956599999</v>
       </c>
       <c r="R4">
-        <v>1.513570978479301</v>
+        <v>5.68746536094</v>
       </c>
       <c r="S4">
-        <v>0.2322881793320787</v>
+        <v>0.045299862794897</v>
       </c>
       <c r="T4">
-        <v>0.2322881793320787</v>
+        <v>0.045299862794897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.00263068107331</v>
+        <v>0.435996</v>
       </c>
       <c r="H5">
-        <v>1.00263068107331</v>
+        <v>1.307988</v>
       </c>
       <c r="I5">
-        <v>0.4497046142895476</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J5">
-        <v>0.4497046142895476</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.358428795373509</v>
+        <v>1.571083666666667</v>
       </c>
       <c r="N5">
-        <v>0.358428795373509</v>
+        <v>4.713251</v>
       </c>
       <c r="O5">
-        <v>0.1226424611303512</v>
+        <v>0.3350750907153454</v>
       </c>
       <c r="P5">
-        <v>0.1226424611303512</v>
+        <v>0.3350750907153454</v>
       </c>
       <c r="Q5">
-        <v>0.3593717072216275</v>
+        <v>0.6849861943319999</v>
       </c>
       <c r="R5">
-        <v>0.3593717072216275</v>
+        <v>6.164875748987999</v>
       </c>
       <c r="S5">
-        <v>0.05515288067814542</v>
+        <v>0.04910236948337</v>
       </c>
       <c r="T5">
-        <v>0.05515288067814542</v>
+        <v>0.04910236948337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.00263068107331</v>
+        <v>1.288726</v>
       </c>
       <c r="H6">
-        <v>1.00263068107331</v>
+        <v>3.866178</v>
       </c>
       <c r="I6">
-        <v>0.4497046142895476</v>
+        <v>0.4331500727560028</v>
       </c>
       <c r="J6">
-        <v>0.4497046142895476</v>
+        <v>0.4331500727560028</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.33046805564507</v>
+        <v>1.278147</v>
       </c>
       <c r="N6">
-        <v>1.33046805564507</v>
+        <v>3.834441</v>
       </c>
       <c r="O6">
-        <v>0.4552420980283892</v>
+        <v>0.2725986088832612</v>
       </c>
       <c r="P6">
-        <v>0.4552420980283892</v>
+        <v>0.2725986088832613</v>
       </c>
       <c r="Q6">
-        <v>1.333968092777699</v>
+        <v>1.647181270722</v>
       </c>
       <c r="R6">
-        <v>1.333968092777699</v>
+        <v>14.824631436498</v>
       </c>
       <c r="S6">
-        <v>0.2047244721022212</v>
+        <v>0.1180761072709697</v>
       </c>
       <c r="T6">
-        <v>0.2047244721022212</v>
+        <v>0.1180761072709698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.00263068107331</v>
+        <v>1.288726</v>
       </c>
       <c r="H7">
-        <v>1.00263068107331</v>
+        <v>3.866178</v>
       </c>
       <c r="I7">
-        <v>0.4497046142895476</v>
+        <v>0.4331500727560028</v>
       </c>
       <c r="J7">
-        <v>0.4497046142895476</v>
+        <v>0.4331500727560028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.23365372461404</v>
+        <v>0.390102</v>
       </c>
       <c r="N7">
-        <v>1.23365372461404</v>
+        <v>1.170306</v>
       </c>
       <c r="O7">
-        <v>0.4221154408412596</v>
+        <v>0.0831995557025741</v>
       </c>
       <c r="P7">
-        <v>0.4221154408412596</v>
+        <v>0.0831995557025741</v>
       </c>
       <c r="Q7">
-        <v>1.236899074118401</v>
+        <v>0.5027345900519999</v>
       </c>
       <c r="R7">
-        <v>1.236899074118401</v>
+        <v>4.524611310468</v>
       </c>
       <c r="S7">
-        <v>0.189827261509181</v>
+        <v>0.03603789360583708</v>
       </c>
       <c r="T7">
-        <v>0.189827261509181</v>
+        <v>0.03603789360583708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.288726</v>
+      </c>
+      <c r="H8">
+        <v>3.866178</v>
+      </c>
+      <c r="I8">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="J8">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.449418333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.348255</v>
+      </c>
+      <c r="O8">
+        <v>0.3091267446988192</v>
+      </c>
+      <c r="P8">
+        <v>0.3091267446988192</v>
+      </c>
+      <c r="Q8">
+        <v>1.867903091043333</v>
+      </c>
+      <c r="R8">
+        <v>16.81112781939</v>
+      </c>
+      <c r="S8">
+        <v>0.1338982719571198</v>
+      </c>
+      <c r="T8">
+        <v>0.1338982719571198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.288726</v>
+      </c>
+      <c r="H9">
+        <v>3.866178</v>
+      </c>
+      <c r="I9">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="J9">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.571083666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.713251</v>
+      </c>
+      <c r="O9">
+        <v>0.3350750907153454</v>
+      </c>
+      <c r="P9">
+        <v>0.3350750907153454</v>
+      </c>
+      <c r="Q9">
+        <v>2.024696369408666</v>
+      </c>
+      <c r="R9">
+        <v>18.222267324678</v>
+      </c>
+      <c r="S9">
+        <v>0.1451377999220761</v>
+      </c>
+      <c r="T9">
+        <v>0.1451377999220761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.202417</v>
+      </c>
+      <c r="H10">
+        <v>0.607251</v>
+      </c>
+      <c r="I10">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J10">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>1.278147</v>
+      </c>
+      <c r="N10">
+        <v>3.834441</v>
+      </c>
+      <c r="O10">
+        <v>0.2725986088832612</v>
+      </c>
+      <c r="P10">
+        <v>0.2725986088832613</v>
+      </c>
+      <c r="Q10">
+        <v>0.2587186812989999</v>
+      </c>
+      <c r="R10">
+        <v>2.328468131691</v>
+      </c>
+      <c r="S10">
+        <v>0.01854592163537314</v>
+      </c>
+      <c r="T10">
+        <v>0.01854592163537314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.202417</v>
+      </c>
+      <c r="H11">
+        <v>0.607251</v>
+      </c>
+      <c r="I11">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J11">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.390102</v>
+      </c>
+      <c r="N11">
+        <v>1.170306</v>
+      </c>
+      <c r="O11">
+        <v>0.0831995557025741</v>
+      </c>
+      <c r="P11">
+        <v>0.0831995557025741</v>
+      </c>
+      <c r="Q11">
+        <v>0.078963276534</v>
+      </c>
+      <c r="R11">
+        <v>0.710669488806</v>
+      </c>
+      <c r="S11">
+        <v>0.00566038266475009</v>
+      </c>
+      <c r="T11">
+        <v>0.00566038266475009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.202417</v>
+      </c>
+      <c r="H12">
+        <v>0.607251</v>
+      </c>
+      <c r="I12">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J12">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.449418333333333</v>
+      </c>
+      <c r="N12">
+        <v>4.348255</v>
+      </c>
+      <c r="O12">
+        <v>0.3091267446988192</v>
+      </c>
+      <c r="P12">
+        <v>0.3091267446988192</v>
+      </c>
+      <c r="Q12">
+        <v>0.2933869107783333</v>
+      </c>
+      <c r="R12">
+        <v>2.640482197005</v>
+      </c>
+      <c r="S12">
+        <v>0.02103106984319734</v>
+      </c>
+      <c r="T12">
+        <v>0.02103106984319734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.202417</v>
+      </c>
+      <c r="H13">
+        <v>0.607251</v>
+      </c>
+      <c r="I13">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J13">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.571083666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.713251</v>
+      </c>
+      <c r="O13">
+        <v>0.3350750907153454</v>
+      </c>
+      <c r="P13">
+        <v>0.3350750907153454</v>
+      </c>
+      <c r="Q13">
+        <v>0.3180140425556666</v>
+      </c>
+      <c r="R13">
+        <v>2.862126383001</v>
+      </c>
+      <c r="S13">
+        <v>0.02279643465471084</v>
+      </c>
+      <c r="T13">
+        <v>0.02279643465471084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.144307</v>
+      </c>
+      <c r="I14">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J14">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>1.278147</v>
+      </c>
+      <c r="N14">
+        <v>3.834441</v>
+      </c>
+      <c r="O14">
+        <v>0.2725986088832612</v>
+      </c>
+      <c r="P14">
+        <v>0.2725986088832613</v>
+      </c>
+      <c r="Q14">
+        <v>1.339628853043</v>
+      </c>
+      <c r="R14">
+        <v>12.056659677387</v>
+      </c>
+      <c r="S14">
+        <v>0.09602960097151787</v>
+      </c>
+      <c r="T14">
+        <v>0.0960296009715179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.144307</v>
+      </c>
+      <c r="I15">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J15">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.390102</v>
+      </c>
+      <c r="N15">
+        <v>1.170306</v>
+      </c>
+      <c r="O15">
+        <v>0.0831995557025741</v>
+      </c>
+      <c r="P15">
+        <v>0.0831995557025741</v>
+      </c>
+      <c r="Q15">
+        <v>0.408866816438</v>
+      </c>
+      <c r="R15">
+        <v>3.679801347942</v>
+      </c>
+      <c r="S15">
+        <v>0.02930910090794805</v>
+      </c>
+      <c r="T15">
+        <v>0.02930910090794805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.144307</v>
+      </c>
+      <c r="I16">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J16">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.449418333333333</v>
+      </c>
+      <c r="N16">
+        <v>4.348255</v>
+      </c>
+      <c r="O16">
+        <v>0.3091267446988192</v>
+      </c>
+      <c r="P16">
+        <v>0.3091267446988192</v>
+      </c>
+      <c r="Q16">
+        <v>1.519138737142778</v>
+      </c>
+      <c r="R16">
+        <v>13.672248634285</v>
+      </c>
+      <c r="S16">
+        <v>0.1088975401036051</v>
+      </c>
+      <c r="T16">
+        <v>0.1088975401036051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.144307</v>
+      </c>
+      <c r="I17">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J17">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.571083666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.713251</v>
+      </c>
+      <c r="O17">
+        <v>0.3350750907153454</v>
+      </c>
+      <c r="P17">
+        <v>0.3350750907153454</v>
+      </c>
+      <c r="Q17">
+        <v>1.646656456895222</v>
+      </c>
+      <c r="R17">
+        <v>14.819908112057</v>
+      </c>
+      <c r="S17">
+        <v>0.1180384866551885</v>
+      </c>
+      <c r="T17">
+        <v>0.1180384866551885</v>
       </c>
     </row>
   </sheetData>
